--- a/medicine/Mort/Décès_en_1955/Décès_en_1955.xlsx
+++ b/medicine/Mort/Décès_en_1955/Décès_en_1955.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1955</t>
+          <t>Décès_en_1955</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1955</t>
+          <t>Décès_en_1955</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,21 +540,94 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Gabriel Chanteau, peintre français (° 13 mai 1874).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Gabriel Chanteau, peintre français (° 13 mai 1874).
 Jacqueline Comerre-Paton, peintre française (° 1er mai 1859).
 Florent, peintre français d'art brut (° 1883).
 Mérovak, peintre français (° 14 juillet 1874).
 Vers 1955 :
-Arsène Herbinier, peintre, dessinateur et lithographe français (° 14 mai 1869).
-Janvier
-7 janvier :
+Arsène Herbinier, peintre, dessinateur et lithographe français (° 14 mai 1869).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>7 janvier :
 Alfred Bastien, peintre belge (° 16 septembre 1873).
 Lamorna Birch, peintre et aquarelliste britannique (° 7 juin 1869).
 14 janvier : Jan Dědina, peintre austro-hongrois puis tchécoslovaque (° 1er septembre 1870).
-15 janvier : Yves Tanguy, peintre américain d'origine française (° 5 janvier 1900).
-Février
-1er février : Paul-Émile Bigeard, sculpteur français (° 8 janvier 1886).
+15 janvier : Yves Tanguy, peintre américain d'origine française (° 5 janvier 1900).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Paul-Émile Bigeard, sculpteur français (° 8 janvier 1886).
 12 février : Hadj M'rizek, chanteur algérien de hawzi et chaâbi algérien (° 1912).
 14 février : Charles Cuvillier, compositeur français (° 24 avril 1877).
 17 février : José Gimeno, poète, dramaturge et peintre espagnol, aussi footballeur (° 1901).
@@ -552,9 +637,43 @@
 Amarilis Fuentes, enseignante et femme politique équatorienne (° 1894).
 20 février : Ernest G. Batley, réalisateur, acteur et scénariste britannique (° 23 février 1874).
 22 février : Gerhard von Haniel, peintre allemand (° 19 septembre 1888).
-23 février : Paul Claudel, dramaturge et poète français (° 6 août 1868).
-Mars
-2 mars : Ernst Rotmund, acteur allemand (° 26 novembre 1886).
+23 février : Paul Claudel, dramaturge et poète français (° 6 août 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Ernst Rotmund, acteur allemand (° 26 novembre 1886).
 7 mars : Alphonse Quizet, peintre français (° 13 mars 1885).
 8 mars : Robert Poughéon, peintre, illustrateur et conservateur de musée français (° 18 juillet 1886).
 11 mars : Sir Alexander Fleming, biologiste et médecin, inventeur de la pénicilline (° 6 août 1881).
@@ -565,9 +684,43 @@
 William Ritter, critique, journaliste et écrivain suisse (° 31 mai 1867).
 22 mars :
 René Courcelle, botaniste français (° 13 février 1886).
-Ivan Šubašić, avocat et homme politique yougoslave de souche croate (° 7 mai 1892).
-Avril
-1er avril : Boris Mirkine-Guetzévitch, 63 ans, juriste russe, professeur de droit constitutionnel (° 1er janvier 1892).
+Ivan Šubašić, avocat et homme politique yougoslave de souche croate (° 7 mai 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril : Boris Mirkine-Guetzévitch, 63 ans, juriste russe, professeur de droit constitutionnel (° 1er janvier 1892).
 3 avril : Karl Hofer, peintre allemand (° 11 octobre 1878).
 4 avril : Paul Crokaert, homme politique belge (° 1er décembre 1875).
 5 avril : Louis Charles Breguet, avionneur français (° 2 janvier 1880).
@@ -581,9 +734,43 @@
 25 avril :
 Paul Basilius Barth, peintre et dessinateur suisse (° 24 octobre 1881).
 José Moreno Villa,  archiviste, bibliothécaire, poète, écrivain, journaliste, critique, historien de l'art, documentaliste, dessinateur et peintre espagnol (° 16 février 1887).
-26 avril : Lyman Poore Duff, juge de la Cour suprême du Canada (° 7 janvier 1865).
-Mai
-1er mai : Skelton Knaggs, acteur anglais (° 27 juin 1911).
+26 avril : Lyman Poore Duff, juge de la Cour suprême du Canada (° 7 janvier 1865).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Skelton Knaggs, acteur anglais (° 27 juin 1911).
 4 mai : Georges Enesco, compositeur roumain (° 19 août 1881).
 5 mai : Anna Ostroumova-Lebedeva, graveuse, peintre et graphiste russe puis soviétique (° 17 mai 1871).
 6 mai : Giovanni Gerbi, coureur cycliste italien (° 20 mai 1885).
@@ -595,9 +782,43 @@
 26 mai : Alberto Ascari, pilote automobile italien, champion du monde de Formule 1 en 1952 et 1953 (° 13 juillet 1918).
 29 mai :
 Giovanni Battista Ciolina, peintre italien (° 15 mai 1870).
-Pierre Lissac, peintre, illustrateur et graveur sur bois français (° 19 mars 1878).
-Juin
-1er juin : Antonio Dattilo Rubbo, peintre et professeur d'art italien puis australien (° 21 juin 1870).
+Pierre Lissac, peintre, illustrateur et graveur sur bois français (° 19 mars 1878).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Antonio Dattilo Rubbo, peintre et professeur d'art italien puis australien (° 21 juin 1870).
 3 juin : Kōshirō Onchi, peintre et photographe japonais  (° 2 juillet 1891).
 6 juin : Julien Pouchois, coureur cycliste français (° 10 décembre 1888).
 11 juin : Pierre Levegh, pilote automobile français, mort en course lors des 24 Heures du Mans (° 22 décembre 1905).
@@ -605,17 +826,85 @@
 Léo Nardus, peintre impressionniste hollandais, marchand d'art, collectionneur et financier d'origine juive (° 5 mai 1868).
 Claude Rameau, peintre et dessinateur français (° 11 mars 1876).
 16 juin : Ozias Leduc, peintre canadien (° 8 octobre 1864).
-29 juin : Ernst Legal, acteur, metteur en scène et directeur de théâtre et d'opéra allemand (° 2 mai 1881).
-Juillet
-9 juillet : Adolfo de la Huerta, président du Mexique en 1920 (° 26 mai 1881).
+29 juin : Ernst Legal, acteur, metteur en scène et directeur de théâtre et d'opéra allemand (° 2 mai 1881).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>9 juillet : Adolfo de la Huerta, président du Mexique en 1920 (° 26 mai 1881).
 10 juillet : Étienne Œhmichen, ingénieur français (° 15 octobre 1884).
 14 juillet : Vladimir Bontch-Brouïevitch, homme politique, ethnographe et écrivain russe puis soviétique (° 28 juin 1873).
 19 juillet : Jūlijs Madernieks, peintre, graphiste et architecte d'intérieur letton (° 27 février 1870).
 23 juillet : Albert de Teschen, militaire et homme politique austro-hongrois puis autrichien (° 24 juillet 1897).
 24 juillet : Edmond Ceria, peintre et illustrateur français (° 26 janvier 1884).
-25 juillet : Ilmari Hannikainen, pianiste et compositeur finlandais (° 19 octobre 1892).
-Août
-7 août : Alexander Stirling MacMillan, premier ministre de Nouvelle-Écosse (° 31 octobre 1871).
+25 juillet : Ilmari Hannikainen, pianiste et compositeur finlandais (° 19 octobre 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>7 août : Alexander Stirling MacMillan, premier ministre de Nouvelle-Écosse (° 31 octobre 1871).
 8 août : Fulvio Aducci, homme politique brésilien (° 8 février 1884).
 9 août : Francisco Alomar, coureur cycliste espagnol (° 23 décembre 1928).
 10 août : Wilhelmina Geddes, peintre de vitrail irlandaise (° 25 mai 1887).
@@ -627,9 +916,43 @@
 Olin Downes, critique musical et musicologue américain (° 27 janvier 1886).
 25 août : Rakuten Kitazawa, mangaka et peintre japonais de l'école nihonga (° 20 juillet 1876).
 29 août : Pierre Dolley, peintre et directeur de la photographie français (° 28 janvier 1877).
-31 août : Willi Baumeister, peintre et typographe allemand (° 22 janvier 1889).
-Septembre
-2 septembre :
+31 août : Willi Baumeister, peintre et typographe allemand (° 22 janvier 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 septembre :
 Stephen Victor Graham, homme politique américain (° 4 mars 1874).
 Axel Persson, coureur cycliste suédois (° 23 janvier 1888).
 4 septembre : René Péan, peintre français (° 1er juillet 1875).
@@ -640,9 +963,43 @@
 20 septembre : Jacques Laplace, peintre français (° 4 septembre 1890).
 21 septembre : Henri Mirande, illustrateur et peintre français (° 25 mars 1877).
 23 septembre : Albert Muret, peintre suisse (° 1er juin 1874).
-30 septembre : James Dean, acteur américain (° 8 février 1931).
-Octobre
-2 octobre :
+30 septembre : James Dean, acteur américain (° 8 février 1931).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre :
 O. B. Clarence, acteur britannique (° 25 mars 1870).
 Gustave Moïse, peintre français (° 25 octobre 1879).
 5 octobre : Koichi Kawai, homme d'affaires japonais (° 5 janvier 1886).
@@ -652,9 +1009,43 @@
 18 octobre : José Ortega y Gasset, philosophe et écrivain espagnol (° 9 mai 1883).
 19 octobre : Carlos Dávila, avocat et homme politique chilien (° 15 septembre 1887).
 20 octobre : Adolf Misek, contrebassiste et compositeur tchèque (° 28 août 1875).
-23 octobre : Lucien Pénat, peintre et graveur français (° 1er décembre 1873).
-Novembre
-1er novembre : Rafael González Madrid dit « Machaquito » matador espagnol (° 2 janvier 1880).
+23 octobre : Lucien Pénat, peintre et graveur français (° 1er décembre 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Rafael González Madrid dit « Machaquito » matador espagnol (° 2 janvier 1880).
 3 novembre : Cyril Chadwick, acteur et chanteur anglais (° 11 juin 1879).
 5 novembre :
 Charley Toorop, peintre néerlandaise (° 24 mars 1891).
@@ -667,9 +1058,43 @@
 Théophile Beeckman, coureur cycliste belge (° 1er novembre 1896).
 Guy Ropartz, compositeur français (° 15 juin 1864).
 27 novembre : Arthur Honegger, compositeur suisse (° 10 mars 1892).
-? novembre : Romolo Boglietti, footballeur italo-argentin (° 24 septembre 1895).
-Décembre
-3 décembre :
+? novembre : Romolo Boglietti, footballeur italo-argentin (° 24 septembre 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1955</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1955</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>3 décembre :
 Maurice Archambaud, coureur cycliste français (° 30 août 1906).
 María Izquierdo, peintre mexicaine (° 30 octobre 1902).
 5 décembre :
